--- a/01_raw_data/4.1_SOCS/raw/input/D2.1.CEN.POPU.xlsx
+++ b/01_raw_data/4.1_SOCS/raw/input/D2.1.CEN.POPU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/bstacy_worldbank_org/Documents/DECIS/SPI/Data/SPI 2023/01_raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/zprinsloo_worldbank_org/Documents/spi/technical-work/SPI/01_raw_data/4.1_SOCS/raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{75639DA7-8736-45F2-8520-AA815A19E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF9DF8C1-A188-4DE3-A6D8-A06388592CB6}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{75639DA7-8736-45F2-8520-AA815A19E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C90B24-5E42-4846-A618-98A41891D4F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -1622,7 +1622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2081,26 +2081,26 @@
   <dimension ref="A1:AI191"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AB139" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AG153" sqref="AG153"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AC131" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="AD136" sqref="AD136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="2" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="23" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="9.140625" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="2"/>
-    <col min="34" max="34" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" style="2" customWidth="1"/>
+    <col min="5" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="23" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="9.1796875" customWidth="1"/>
+    <col min="29" max="29" width="9.1796875" style="2"/>
+    <col min="34" max="34" width="41.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30.75">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A34" si="0">1+A2</f>
         <v>2</v>
@@ -2397,7 +2397,7 @@
         <v xml:space="preserve">2001, 2011, 2023, </v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2497,7 +2497,7 @@
         <v xml:space="preserve">1998, 2008, 2022, </v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2594,7 +2594,7 @@
         <v xml:space="preserve">2011, 2021, </v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2689,7 +2689,7 @@
         <v xml:space="preserve">2014, </v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2784,7 +2784,7 @@
         <v xml:space="preserve">2001, 2011, </v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2884,7 +2884,7 @@
         <v xml:space="preserve">2001, 2010, 2022, </v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2979,7 +2979,7 @@
         <v xml:space="preserve">2001, 2011, </v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3079,7 +3079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3176,7 +3176,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3274,7 +3274,7 @@
         <v xml:space="preserve">1999, 2009, 2019, </v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3374,7 +3374,7 @@
         <v xml:space="preserve">2000, 2010, 2022, </v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3471,7 +3471,7 @@
         <v xml:space="preserve">2001, 2010, 2020, </v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3571,7 +3571,7 @@
         <v xml:space="preserve">2001, 2011, 2022, </v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3668,7 +3668,7 @@
         <v xml:space="preserve">2000, 2010, 2021, </v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3763,7 +3763,7 @@
         <v xml:space="preserve">1999, 2009, 2019, </v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3863,7 +3863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3963,7 +3963,7 @@
         <v xml:space="preserve">2000, 2010, 2022, </v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4062,7 +4062,7 @@
         <v xml:space="preserve">2002, 2013, 2023, </v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4157,7 +4157,7 @@
         <v xml:space="preserve">2005, 2017, </v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4252,7 +4252,7 @@
         <v xml:space="preserve">2001, 2012, </v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4347,7 +4347,7 @@
         <v xml:space="preserve">2013, </v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4447,7 +4447,7 @@
         <v xml:space="preserve">2001, 2011, 2022, </v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4547,7 +4547,7 @@
         <v xml:space="preserve">1996, 2000, 2010, 2022, </v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4644,7 +4644,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4741,7 +4741,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4836,7 +4836,7 @@
         <v xml:space="preserve">1996, 2006, 2019, </v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4931,7 +4931,7 @@
         <v xml:space="preserve">2008, </v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5028,7 +5028,7 @@
         <v xml:space="preserve">2000, 2010, 2021, </v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5123,7 +5123,7 @@
         <v xml:space="preserve">1998, 2008, 2019, </v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5218,7 +5218,7 @@
         <v xml:space="preserve">2005, </v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5313,7 +5313,7 @@
         <v xml:space="preserve">1996, 2001, 2006, 2011, 2016, </v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5408,7 +5408,7 @@
         <v xml:space="preserve">2003, </v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <f t="shared" ref="A35:A66" si="2">1+A34</f>
         <v>34</v>
@@ -5503,7 +5503,7 @@
         <v xml:space="preserve">2009, </v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -5598,7 +5598,7 @@
         <v xml:space="preserve">2002, 2012, 2017, </v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -5693,7 +5693,7 @@
         <v xml:space="preserve">2000, 2010, 2020, </v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -5788,7 +5788,7 @@
         <v xml:space="preserve">2006, 2018, </v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -5883,7 +5883,7 @@
         <v xml:space="preserve">2003, 2017, </v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -5978,7 +5978,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -6073,7 +6073,7 @@
         <v xml:space="preserve">1996, 2007, </v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -6173,7 +6173,7 @@
         <v xml:space="preserve">2000, 2011, 2022, </v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -6270,7 +6270,7 @@
         <v xml:space="preserve">1998, 2014, 2021, </v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -6367,7 +6367,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -6464,7 +6464,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -6561,7 +6561,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -6661,7 +6661,7 @@
         <v xml:space="preserve">2001, 2011, 2021, 2024, </v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -6756,7 +6756,7 @@
         <v xml:space="preserve">2009, </v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -6856,7 +6856,7 @@
         <v xml:space="preserve">2001, 2011, 2022, </v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -6954,7 +6954,7 @@
         <v xml:space="preserve">2002, 2010, 2022, </v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -7052,7 +7052,7 @@
         <v xml:space="preserve">2001, 2010, 2022, </v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -7148,7 +7148,7 @@
         <v xml:space="preserve">1996, 2006, 2017, </v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -7243,7 +7243,7 @@
         <v xml:space="preserve">2007, </v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -7338,7 +7338,7 @@
         <v xml:space="preserve">2002, 2015, </v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -7433,7 +7433,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -7530,7 +7530,7 @@
         <v xml:space="preserve">2000, 2012, 2021, </v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -7625,7 +7625,7 @@
         <v xml:space="preserve">1997, 2007, 2017, </v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -7720,7 +7720,7 @@
         <v xml:space="preserve">2007, </v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -7815,7 +7815,7 @@
         <v xml:space="preserve">1996, 2007, 2017, </v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -7915,7 +7915,7 @@
         <v xml:space="preserve">2000, 2010, 2021, </v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -8010,7 +8010,7 @@
         <v xml:space="preserve">1999, 2006, 2011, 2016, </v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -8105,7 +8105,7 @@
         <v xml:space="preserve">2003, 2013, </v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -8200,7 +8200,7 @@
         <v xml:space="preserve">2003, 2013, </v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -8295,7 +8295,7 @@
         <v xml:space="preserve">2002, 2014, </v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -8395,7 +8395,7 @@
         <v xml:space="preserve">2011, 2022, </v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -8492,7 +8492,7 @@
         <v xml:space="preserve">2000, 2010, 2021, </v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <f t="shared" ref="A67:A98" si="3">1+A66</f>
         <v>66</v>
@@ -8589,7 +8589,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -8686,7 +8686,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -8781,7 +8781,7 @@
         <v xml:space="preserve">2002, 2018, </v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -8876,7 +8876,7 @@
         <v xml:space="preserve">1996, 2014, </v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -8971,7 +8971,7 @@
         <v xml:space="preserve">2009, </v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -9069,7 +9069,7 @@
         <v xml:space="preserve">2002, 2012, 2022, </v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -9164,7 +9164,7 @@
         <v xml:space="preserve">2003, </v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -9259,7 +9259,7 @@
         <v xml:space="preserve">2001, 2013, </v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -9359,7 +9359,7 @@
         <v xml:space="preserve">2001, 2011, 2022, </v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -9456,7 +9456,7 @@
         <v xml:space="preserve">2011, 2021, </v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -9551,7 +9551,7 @@
         <v xml:space="preserve">2001, 2011, </v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -9646,7 +9646,7 @@
         <v xml:space="preserve">2000, 2010, 2020, </v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -9741,7 +9741,7 @@
         <v xml:space="preserve">1996, 2006, 2011, 2016, </v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -9836,7 +9836,7 @@
         <v xml:space="preserve">1997, </v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -9936,7 +9936,7 @@
         <v xml:space="preserve">1996, 2002, 2006, 2011, 2016, 2022, </v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -10036,7 +10036,7 @@
         <v xml:space="preserve">2009, 2022, </v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -10133,7 +10133,7 @@
         <v xml:space="preserve">2001, 2012, 2021, </v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -10231,7 +10231,7 @@
         <v xml:space="preserve">2001, 2011, 2022, </v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -10326,7 +10326,7 @@
         <v xml:space="preserve">2000, 2005, 2010, 2015, 2020, </v>
       </c>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -10421,7 +10421,7 @@
         <v xml:space="preserve">2004, 2015, </v>
       </c>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -10518,7 +10518,7 @@
         <v xml:space="preserve">1999, 2009, 2021, </v>
       </c>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -10613,7 +10613,7 @@
         <v xml:space="preserve">1999, 2009, 2019, </v>
       </c>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -10708,7 +10708,7 @@
         <v xml:space="preserve">2000, 2005, 2010, 2015, </v>
       </c>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -10817,7 +10817,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -10912,7 +10912,7 @@
         <v xml:space="preserve">2011, </v>
       </c>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -11009,7 +11009,7 @@
         <v xml:space="preserve">2005, 2011, 2021, </v>
       </c>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -11109,7 +11109,7 @@
         <v xml:space="preserve">1999, 2009, 2022, </v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -11204,7 +11204,7 @@
         <v xml:space="preserve">2005, 2015, </v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -11301,7 +11301,7 @@
         <v xml:space="preserve">2000, 2011, 2021, </v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -11396,7 +11396,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -11491,7 +11491,7 @@
         <v xml:space="preserve">1996, 2006, 2016, </v>
       </c>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -11591,7 +11591,7 @@
         <v xml:space="preserve">2008, 2022, </v>
       </c>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <f t="shared" ref="A99:A130" si="5">1+A98</f>
         <v>98</v>
@@ -11686,7 +11686,7 @@
         <v xml:space="preserve">2006, </v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <f t="shared" si="5"/>
         <v>99</v>
@@ -11783,7 +11783,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -11880,7 +11880,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <f t="shared" si="5"/>
         <v>101</v>
@@ -11977,7 +11977,7 @@
         <v xml:space="preserve">2002, 2021, </v>
       </c>
     </row>
-    <row r="103" spans="1:35">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <f t="shared" si="5"/>
         <v>102</v>
@@ -12072,7 +12072,7 @@
         <v xml:space="preserve">2018, </v>
       </c>
     </row>
-    <row r="104" spans="1:35">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <f t="shared" si="5"/>
         <v>103</v>
@@ -12167,7 +12167,7 @@
         <v xml:space="preserve">1998, 2008, 2018, </v>
       </c>
     </row>
-    <row r="105" spans="1:35">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <f t="shared" si="5"/>
         <v>104</v>
@@ -12262,7 +12262,7 @@
         <v xml:space="preserve">2000, 2010, 2020, </v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <f t="shared" si="5"/>
         <v>105</v>
@@ -12360,7 +12360,7 @@
         <v xml:space="preserve">2000, 2006, 2011, 2014, 2022, </v>
       </c>
     </row>
-    <row r="107" spans="1:35">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <f t="shared" si="5"/>
         <v>106</v>
@@ -12460,7 +12460,7 @@
         <v xml:space="preserve">1998, 2009, 2022, </v>
       </c>
     </row>
-    <row r="108" spans="1:35">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -12560,7 +12560,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:35">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -12657,7 +12657,7 @@
         <v xml:space="preserve">1999, 2011, 2021, </v>
       </c>
     </row>
-    <row r="110" spans="1:35">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -12752,7 +12752,7 @@
         <v xml:space="preserve">2000, 2013, </v>
       </c>
     </row>
-    <row r="111" spans="1:35">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <f t="shared" si="5"/>
         <v>110</v>
@@ -12852,7 +12852,7 @@
         <v xml:space="preserve">2000, 2011, 2022, </v>
       </c>
     </row>
-    <row r="112" spans="1:35">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <f t="shared" si="5"/>
         <v>111</v>
@@ -12947,7 +12947,7 @@
         <v xml:space="preserve">2000, 2005, 2010, 2020, </v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <f t="shared" si="5"/>
         <v>112</v>
@@ -13042,7 +13042,7 @@
         <v xml:space="preserve">2000, 2010, </v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <f t="shared" si="5"/>
         <v>113</v>
@@ -13137,7 +13137,7 @@
         <v xml:space="preserve">2004, 2014, </v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <f t="shared" si="5"/>
         <v>114</v>
@@ -13232,7 +13232,7 @@
         <v xml:space="preserve">2000, 2010, 2020, </v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <f t="shared" si="5"/>
         <v>115</v>
@@ -13331,7 +13331,7 @@
         <v xml:space="preserve">2003, 2011, 2023, </v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <f t="shared" si="5"/>
         <v>116</v>
@@ -13426,7 +13426,7 @@
         <v xml:space="preserve">2004, 2014, </v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <f t="shared" si="5"/>
         <v>117</v>
@@ -13521,7 +13521,7 @@
         <v xml:space="preserve">1997, 2007, 2017, </v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <f t="shared" si="5"/>
         <v>118</v>
@@ -13616,7 +13616,7 @@
         <v xml:space="preserve">2014, </v>
       </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <f t="shared" si="5"/>
         <v>119</v>
@@ -13715,7 +13715,7 @@
         <v xml:space="preserve">2001, 2011, 2023, </v>
       </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <f t="shared" si="5"/>
         <v>120</v>
@@ -13812,7 +13812,7 @@
         <v xml:space="preserve">2002, 2011, 2021, </v>
       </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <f t="shared" si="5"/>
         <v>121</v>
@@ -13909,7 +13909,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <f t="shared" si="5"/>
         <v>122</v>
@@ -14006,7 +14006,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <f t="shared" si="5"/>
         <v>123</v>
@@ -14101,7 +14101,7 @@
         <v xml:space="preserve">1996, 2001, 2006, 2013, 2018, </v>
       </c>
     </row>
-    <row r="125" spans="1:34">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -14196,7 +14196,7 @@
         <v xml:space="preserve">2005, </v>
       </c>
     </row>
-    <row r="126" spans="1:34">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <f t="shared" si="5"/>
         <v>125</v>
@@ -14291,7 +14291,7 @@
         <v xml:space="preserve">2001, 2012, </v>
       </c>
     </row>
-    <row r="127" spans="1:34">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <f t="shared" si="5"/>
         <v>126</v>
@@ -14386,7 +14386,7 @@
         <v xml:space="preserve">2006, </v>
       </c>
     </row>
-    <row r="128" spans="1:34">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <f t="shared" si="5"/>
         <v>127</v>
@@ -14483,7 +14483,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="129" spans="1:34">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <f t="shared" si="5"/>
         <v>128</v>
@@ -14578,7 +14578,7 @@
         <v xml:space="preserve">2003, 2010, 2020, </v>
       </c>
     </row>
-    <row r="130" spans="1:34">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <f t="shared" si="5"/>
         <v>129</v>
@@ -14673,7 +14673,7 @@
         <v xml:space="preserve">1998, 2017, </v>
       </c>
     </row>
-    <row r="131" spans="1:34">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <f t="shared" ref="A131:A162" si="6">1+A130</f>
         <v>130</v>
@@ -14768,7 +14768,7 @@
         <v xml:space="preserve">2000, 2005, 2010, 2012, 2015, </v>
       </c>
     </row>
-    <row r="132" spans="1:34">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -14867,7 +14867,7 @@
         <v xml:space="preserve">2000, 2010, 2023, </v>
       </c>
     </row>
-    <row r="133" spans="1:34">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -14962,7 +14962,7 @@
         <v xml:space="preserve">2000, 2011, </v>
       </c>
     </row>
-    <row r="134" spans="1:34">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -15060,7 +15060,7 @@
         <v xml:space="preserve">2002, 2012, 2022, </v>
       </c>
     </row>
-    <row r="135" spans="1:34">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -15155,7 +15155,7 @@
         <v xml:space="preserve">2005, 2007, 2017, </v>
       </c>
     </row>
-    <row r="136" spans="1:34">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -15242,15 +15242,18 @@
         <v>0</v>
       </c>
       <c r="AC136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD136" s="2"/>
+      <c r="AG136">
+        <v>1</v>
+      </c>
       <c r="AH136" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">2000, 2007, 2010, 2015, </v>
+        <v xml:space="preserve">2000, 2007, 2010, 2015, 2020, 2024, </v>
       </c>
     </row>
-    <row r="137" spans="1:34">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -15347,7 +15350,7 @@
         <v xml:space="preserve">2002, 2011, 2021, </v>
       </c>
     </row>
-    <row r="138" spans="1:34">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -15444,7 +15447,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="139" spans="1:34">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -15539,7 +15542,7 @@
         <v xml:space="preserve">1997, 2004, 2010, 2015, </v>
       </c>
     </row>
-    <row r="140" spans="1:34">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -15639,7 +15642,7 @@
         <v xml:space="preserve">2002, 2011, 2022, </v>
       </c>
     </row>
-    <row r="141" spans="1:34">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -15736,7 +15739,7 @@
         <v xml:space="preserve">2002, 2010, 2021, </v>
       </c>
     </row>
-    <row r="142" spans="1:34">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <f t="shared" si="6"/>
         <v>141</v>
@@ -15836,7 +15839,7 @@
         <v xml:space="preserve">2002, 2012, 2022, </v>
       </c>
     </row>
-    <row r="143" spans="1:34">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <f t="shared" si="6"/>
         <v>142</v>
@@ -15931,7 +15934,7 @@
         <v xml:space="preserve">2001, 2006, 2011, 2016, </v>
       </c>
     </row>
-    <row r="144" spans="1:34">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <f t="shared" si="6"/>
         <v>143</v>
@@ -16026,7 +16029,7 @@
         <v xml:space="preserve">2001, 2012, </v>
       </c>
     </row>
-    <row r="145" spans="1:34">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <f t="shared" si="6"/>
         <v>144</v>
@@ -16126,7 +16129,7 @@
         <v xml:space="preserve">2004, 2010, 2022, </v>
       </c>
     </row>
-    <row r="146" spans="1:34">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <f t="shared" si="6"/>
         <v>145</v>
@@ -16225,7 +16228,7 @@
         <v xml:space="preserve">2002, 2013, 2023, </v>
       </c>
     </row>
-    <row r="147" spans="1:34">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <f t="shared" si="6"/>
         <v>146</v>
@@ -16320,7 +16323,7 @@
         <v xml:space="preserve">2002, 2011, </v>
       </c>
     </row>
-    <row r="148" spans="1:34">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <f t="shared" si="6"/>
         <v>147</v>
@@ -16420,7 +16423,7 @@
         <v xml:space="preserve">1997, 2002, 2010, 2022, </v>
       </c>
     </row>
-    <row r="149" spans="1:34">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <f t="shared" si="6"/>
         <v>148</v>
@@ -16515,7 +16518,7 @@
         <v xml:space="preserve">2004, 2015, </v>
       </c>
     </row>
-    <row r="150" spans="1:34">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <f t="shared" si="6"/>
         <v>149</v>
@@ -16610,7 +16613,7 @@
         <v xml:space="preserve">2000, 2010, 2020, </v>
       </c>
     </row>
-    <row r="151" spans="1:34">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -16707,7 +16710,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="152" spans="1:34">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <f t="shared" si="6"/>
         <v>151</v>
@@ -16807,7 +16810,7 @@
         <v xml:space="preserve">2002, 2011, 2015, 2018, 2021, 2024, </v>
       </c>
     </row>
-    <row r="153" spans="1:34">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <f t="shared" si="6"/>
         <v>152</v>
@@ -16902,7 +16905,7 @@
         <v xml:space="preserve">1999, 2009, 2019, </v>
       </c>
     </row>
-    <row r="154" spans="1:34">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <f t="shared" si="6"/>
         <v>153</v>
@@ -16997,7 +17000,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:34">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <f t="shared" si="6"/>
         <v>154</v>
@@ -17097,7 +17100,7 @@
         <v xml:space="preserve">1996, 2001, 2011, 2022, </v>
       </c>
     </row>
-    <row r="156" spans="1:34">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <f t="shared" si="6"/>
         <v>155</v>
@@ -17192,7 +17195,7 @@
         <v xml:space="preserve">2008, </v>
       </c>
     </row>
-    <row r="157" spans="1:34">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <f t="shared" si="6"/>
         <v>156</v>
@@ -17292,7 +17295,7 @@
         <v xml:space="preserve">2001, 2011, 2021, 2024, </v>
       </c>
     </row>
-    <row r="158" spans="1:34">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <f t="shared" si="6"/>
         <v>157</v>
@@ -17387,7 +17390,7 @@
         <v xml:space="preserve">2001, 2012, </v>
       </c>
     </row>
-    <row r="159" spans="1:34">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <f t="shared" si="6"/>
         <v>158</v>
@@ -17487,7 +17490,7 @@
         <v xml:space="preserve">2001, 2011, 2022, </v>
       </c>
     </row>
-    <row r="160" spans="1:34">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <f t="shared" si="6"/>
         <v>159</v>
@@ -17587,7 +17590,7 @@
         <v xml:space="preserve">2001, 2010, 2022, </v>
       </c>
     </row>
-    <row r="161" spans="1:34">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <f t="shared" si="6"/>
         <v>160</v>
@@ -17686,7 +17689,7 @@
         <v xml:space="preserve">2001, 2012, 2023, </v>
       </c>
     </row>
-    <row r="162" spans="1:34">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <f t="shared" si="6"/>
         <v>161</v>
@@ -17781,7 +17784,7 @@
         <v xml:space="preserve">2008, </v>
       </c>
     </row>
-    <row r="163" spans="1:34">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <f t="shared" ref="A163:A191" si="8">1+A162</f>
         <v>162</v>
@@ -17876,7 +17879,7 @@
         <v xml:space="preserve">2004, 2012, </v>
       </c>
     </row>
-    <row r="164" spans="1:34">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <f t="shared" si="8"/>
         <v>163</v>
@@ -17973,7 +17976,7 @@
         <v xml:space="preserve">2011, 2021, </v>
       </c>
     </row>
-    <row r="165" spans="1:34">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <f t="shared" si="8"/>
         <v>164</v>
@@ -18070,7 +18073,7 @@
         <v xml:space="preserve">2000, 2010, 2021, </v>
       </c>
     </row>
-    <row r="166" spans="1:34">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <f t="shared" si="8"/>
         <v>165</v>
@@ -18165,7 +18168,7 @@
         <v xml:space="preserve">2004, </v>
       </c>
     </row>
-    <row r="167" spans="1:34">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <f t="shared" si="8"/>
         <v>166</v>
@@ -18260,7 +18263,7 @@
         <v xml:space="preserve">2000, 2010, 2020, </v>
       </c>
     </row>
-    <row r="168" spans="1:34">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <f t="shared" si="8"/>
         <v>167</v>
@@ -18360,7 +18363,7 @@
         <v xml:space="preserve">2002, 2012, 2022, </v>
       </c>
     </row>
-    <row r="169" spans="1:34">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <f t="shared" si="8"/>
         <v>168</v>
@@ -18455,7 +18458,7 @@
         <v xml:space="preserve">2000, 2010, </v>
       </c>
     </row>
-    <row r="170" spans="1:34">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <f t="shared" si="8"/>
         <v>169</v>
@@ -18550,7 +18553,7 @@
         <v xml:space="preserve">2004, 2010, 2015, </v>
       </c>
     </row>
-    <row r="171" spans="1:34">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <f t="shared" si="8"/>
         <v>170</v>
@@ -18650,7 +18653,7 @@
         <v xml:space="preserve">2010, 2022, </v>
       </c>
     </row>
-    <row r="172" spans="1:34">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <f t="shared" si="8"/>
         <v>171</v>
@@ -18745,7 +18748,7 @@
         <v xml:space="preserve">1996, 2006, 2016, </v>
       </c>
     </row>
-    <row r="173" spans="1:34">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <f t="shared" si="8"/>
         <v>172</v>
@@ -18840,7 +18843,7 @@
         <v xml:space="preserve">2000, 2011, </v>
       </c>
     </row>
-    <row r="174" spans="1:34">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <f t="shared" si="8"/>
         <v>173</v>
@@ -18935,7 +18938,7 @@
         <v xml:space="preserve">2004, 2014, </v>
       </c>
     </row>
-    <row r="175" spans="1:34">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <f t="shared" si="8"/>
         <v>174</v>
@@ -19029,7 +19032,7 @@
         <v xml:space="preserve">2000, 2011, 2021, </v>
       </c>
     </row>
-    <row r="176" spans="1:34">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <f t="shared" si="8"/>
         <v>175</v>
@@ -19127,7 +19130,7 @@
         <v xml:space="preserve">2012, 2022, </v>
       </c>
     </row>
-    <row r="177" spans="1:34">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <f t="shared" si="8"/>
         <v>176</v>
@@ -19222,7 +19225,7 @@
         <v xml:space="preserve">2002, 2012, 2017, </v>
       </c>
     </row>
-    <row r="178" spans="1:34">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <f t="shared" si="8"/>
         <v>177</v>
@@ -19317,7 +19320,7 @@
         <v xml:space="preserve">2002, 2014, </v>
       </c>
     </row>
-    <row r="179" spans="1:34">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <f t="shared" si="8"/>
         <v>178</v>
@@ -19412,7 +19415,7 @@
         <v xml:space="preserve">2001, </v>
       </c>
     </row>
-    <row r="180" spans="1:34">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <f t="shared" si="8"/>
         <v>179</v>
@@ -19510,7 +19513,7 @@
         <v xml:space="preserve">2005, 2010, 2024, </v>
       </c>
     </row>
-    <row r="181" spans="1:34">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <f t="shared" si="8"/>
         <v>180</v>
@@ -19607,7 +19610,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="182" spans="1:34">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <f t="shared" si="8"/>
         <v>181</v>
@@ -19702,7 +19705,7 @@
         <v xml:space="preserve">2000, 2010, 2020, </v>
       </c>
     </row>
-    <row r="183" spans="1:34">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <f t="shared" si="8"/>
         <v>182</v>
@@ -19801,7 +19804,7 @@
         <v xml:space="preserve">1996, 2004, 2011, 2023, </v>
       </c>
     </row>
-    <row r="184" spans="1:34">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <f t="shared" si="8"/>
         <v>183</v>
@@ -19896,7 +19899,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:34">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <f t="shared" si="8"/>
         <v>184</v>
@@ -19991,7 +19994,7 @@
         <v xml:space="preserve">1999, 2009, 2016, </v>
       </c>
     </row>
-    <row r="186" spans="1:34">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <f t="shared" si="8"/>
         <v>185</v>
@@ -20088,7 +20091,7 @@
         <v xml:space="preserve">2001, 2011, 2021, </v>
       </c>
     </row>
-    <row r="187" spans="1:34">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <f t="shared" si="8"/>
         <v>186</v>
@@ -20183,7 +20186,7 @@
         <v xml:space="preserve">1999, 2009, 2019, </v>
       </c>
     </row>
-    <row r="188" spans="1:34">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <f t="shared" si="8"/>
         <v>187</v>
@@ -20278,7 +20281,7 @@
         <v xml:space="preserve">1997, 2007, 2017, </v>
       </c>
     </row>
-    <row r="189" spans="1:34">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <f t="shared" si="8"/>
         <v>188</v>
@@ -20373,7 +20376,7 @@
         <v xml:space="preserve">2004, </v>
       </c>
     </row>
-    <row r="190" spans="1:34">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <f t="shared" si="8"/>
         <v>189</v>
@@ -20473,7 +20476,7 @@
         <v xml:space="preserve">2000, 2010, 2022, </v>
       </c>
     </row>
-    <row r="191" spans="1:34">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <f t="shared" si="8"/>
         <v>190</v>
@@ -20585,20 +20588,14 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Official Use Only</oddFooter>
+  </headerFooter>
   <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
@@ -20607,6 +20604,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20858,13 +20864,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF84EFB0-440D-4BEE-A33A-E8E1C7F54F66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD49A242-358D-44DE-A037-18ADEE7ADB86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="b19ad29f-88fa-4d62-ac16-34b992563bf9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD49A242-358D-44DE-A037-18ADEE7ADB86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF84EFB0-440D-4BEE-A33A-E8E1C7F54F66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CDEF3A0-C1C1-4D07-AC67-E6E43D446A79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CDEF3A0-C1C1-4D07-AC67-E6E43D446A79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b19ad29f-88fa-4d62-ac16-34b992563bf9"/>
+    <ds:schemaRef ds:uri="e781ea9d-1795-4792-8d8d-c86ae526af93"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>